--- a/Docs/lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\facultate\an3\Sem2\VVSS\LAB01\CheckListsAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.deak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CC7C3A-A825-4F2F-B746-C3B4B23A38BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91EF5AF-DAF2-4FBC-8E5D-FF6A50B016D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Author Name: </t>
-  </si>
-  <si>
-    <t>Popescu Ionel</t>
-  </si>
-  <si>
-    <t>Georgescu Anca</t>
-  </si>
-  <si>
-    <t>Firicescu George</t>
   </si>
   <si>
     <t>Requirements Document</t>
@@ -334,6 +325,9 @@
   </si>
   <si>
     <t>SonarLint</t>
+  </si>
+  <si>
+    <t>Graven</t>
   </si>
 </sst>
 </file>
@@ -555,6 +549,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -597,7 +592,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,111 +935,111 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="H1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="J3" s="18">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="25"/>
       <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="27"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1059,92 +1053,92 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1153,7 +1147,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1162,7 +1156,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1171,7 +1165,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1180,7 +1174,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1189,7 +1183,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1198,7 +1192,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1207,7 +1201,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1216,7 +1210,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1225,7 +1219,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1234,10 +1228,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1267,110 +1261,110 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="H1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="J3" s="18">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="27"/>
+      <c r="D4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="28"/>
       <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="29"/>
+      <c r="D5" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="30"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1384,123 +1378,123 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1509,7 +1503,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1518,7 +1512,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1527,7 +1521,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1536,7 +1530,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1545,7 +1539,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1554,7 +1548,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1563,7 +1557,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1572,10 +1566,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1605,111 +1599,111 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="H1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="J3" s="18">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="33"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1723,101 +1717,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1826,7 +1820,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1835,7 +1829,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1844,7 +1838,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1853,7 +1847,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1862,7 +1856,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1871,7 +1865,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1880,7 +1874,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1889,7 +1883,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1898,7 +1892,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1907,7 +1901,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1916,7 +1910,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1925,7 +1919,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1934,7 +1928,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1943,10 +1937,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1976,205 +1970,205 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="H1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="J3" s="18">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="22"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2184,7 +2178,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2194,7 +2188,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2204,7 +2198,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2214,7 +2208,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2224,7 +2218,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2234,7 +2228,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2244,7 +2238,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2254,7 +2248,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2264,7 +2258,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2274,7 +2268,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2284,7 +2278,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2294,7 +2288,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2304,7 +2298,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2314,7 +2308,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2324,7 +2318,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2334,15 +2328,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="19">
         <v>0.5</v>
       </c>
